--- a/data/trans_orig/P73-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P73-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2297A5-8F4F-472B-9598-8DDC38D9297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CEFCFE-F354-4CBF-8394-51226DB7216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A3E881D-F4A4-4456-A5C0-BB7F21F5CCD9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7285353A-3213-43A5-B471-113EE6C852C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="546">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>61,9%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>38,1%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
   </si>
   <si>
     <t>41,66%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1411 +167,1399 @@
     <t>65,82%</t>
   </si>
   <si>
-    <t>61,38%</t>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>68,44%</t>
   </si>
   <si>
-    <t>65,12%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>61,93%</t>
   </si>
   <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>36,85%</t>
   </si>
   <si>
     <t>39,3%</t>
@@ -2100,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23FD8D7-D8D6-4902-83B6-080F7582B711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DD1326-8525-48A6-A85F-9DE3FBF6155D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3335,13 +3323,13 @@
         <v>350698</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3344,13 @@
         <v>92731</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3371,13 +3359,13 @@
         <v>105526</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3386,13 +3374,13 @@
         <v>198257</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3436,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3466,37 +3454,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3499,13 @@
         <v>418753</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>392</v>
@@ -3526,13 +3514,13 @@
         <v>404653</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>798</v>
@@ -3541,13 +3529,13 @@
         <v>823406</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3550,13 @@
         <v>195362</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>229</v>
@@ -3577,13 +3565,13 @@
         <v>233566</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M30" s="7">
         <v>420</v>
@@ -3920,7 +3908,7 @@
         <v>2096</v>
       </c>
       <c r="D37" s="7">
-        <v>2142457</v>
+        <v>2142458</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>188</v>
@@ -3941,10 +3929,10 @@
         <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>4149</v>
@@ -3953,13 +3941,13 @@
         <v>4256715</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3962,13 @@
         <v>1133174</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H38" s="7">
         <v>1244</v>
@@ -3989,13 +3977,13 @@
         <v>1264940</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="M38" s="7">
         <v>2361</v>
@@ -4004,13 +3992,13 @@
         <v>2398114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4010,7 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4066,7 +4054,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4090,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D710DD5-940D-4116-85F9-94D60E6DD063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72335A-4A61-4682-AB71-E83C77037790}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4107,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4212,39 +4200,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,39 +4245,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,39 +4290,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,39 +4335,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4447,13 +4435,13 @@
         <v>340250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>319</v>
@@ -4462,13 +4450,13 @@
         <v>350852</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>636</v>
@@ -4477,13 +4465,13 @@
         <v>691102</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4486,13 @@
         <v>165277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -4513,13 +4501,13 @@
         <v>172913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>316</v>
@@ -4528,13 +4516,13 @@
         <v>338190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4623,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4653,13 +4641,13 @@
         <v>200130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -4668,13 +4656,13 @@
         <v>209706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>390</v>
@@ -4683,13 +4671,13 @@
         <v>409836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4692,13 @@
         <v>123916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>124</v>
@@ -4719,13 +4707,13 @@
         <v>131314</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>246</v>
@@ -4734,13 +4722,13 @@
         <v>255230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4829,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4844,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,16 +4844,16 @@
         <v>395</v>
       </c>
       <c r="D17" s="7">
-        <v>430753</v>
+        <v>430754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4874,13 +4862,13 @@
         <v>446854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>806</v>
@@ -4889,13 +4877,13 @@
         <v>877607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4898,13 @@
         <v>228281</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>203</v>
@@ -4925,13 +4913,13 @@
         <v>214598</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="M18" s="7">
         <v>424</v>
@@ -4940,13 +4928,13 @@
         <v>442879</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +4946,7 @@
         <v>616</v>
       </c>
       <c r="D19" s="7">
-        <v>659034</v>
+        <v>659035</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5020,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5035,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5065,13 +5053,13 @@
         <v>136875</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
         <v>134</v>
@@ -5080,13 +5068,13 @@
         <v>140809</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M21" s="7">
         <v>259</v>
@@ -5095,13 +5083,13 @@
         <v>277684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5104,13 @@
         <v>75743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -5131,13 +5119,13 @@
         <v>77004</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -5146,13 +5134,13 @@
         <v>152747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5214,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5271,13 +5259,13 @@
         <v>179135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -5286,13 +5274,13 @@
         <v>179805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>344</v>
@@ -5301,13 +5289,13 @@
         <v>358940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5310,13 @@
         <v>94846</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -5337,13 +5325,13 @@
         <v>100226</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>186</v>
@@ -5352,10 +5340,10 @@
         <v>195072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>299</v>
@@ -5414,7 +5402,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5432,7 +5420,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5495,10 +5483,10 @@
         <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>809</v>
@@ -5507,13 +5495,13 @@
         <v>882606</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5516,13 @@
         <v>226920</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H30" s="7">
         <v>227</v>
@@ -5543,13 +5531,13 @@
         <v>246146</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="M30" s="7">
         <v>444</v>
@@ -5558,13 +5546,13 @@
         <v>473065</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5653,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5683,13 +5671,13 @@
         <v>496730</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H33" s="7">
         <v>477</v>
@@ -5698,13 +5686,13 @@
         <v>522847</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M33" s="7">
         <v>929</v>
@@ -5713,13 +5701,13 @@
         <v>1019577</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5722,13 @@
         <v>280236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H34" s="7">
         <v>280</v>
@@ -5749,13 +5737,13 @@
         <v>301006</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="M34" s="7">
         <v>543</v>
@@ -5764,13 +5752,13 @@
         <v>581242</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5877,13 @@
         <v>2219742</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H37" s="7">
         <v>2115</v>
@@ -5904,13 +5892,13 @@
         <v>2297610</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M37" s="7">
         <v>4173</v>
@@ -5919,13 +5907,13 @@
         <v>4517351</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5928,13 @@
         <v>1195220</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H38" s="7">
         <v>1167</v>
@@ -5955,13 +5943,13 @@
         <v>1243207</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M38" s="7">
         <v>2306</v>
@@ -5970,13 +5958,13 @@
         <v>2438427</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,7 +6020,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6056,7 +6044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE22976-9C3F-47F6-B537-F3756E51A45B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A88CDB3-C164-4E30-BCB3-8265EEE157A5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6073,7 +6061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6201,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6216,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6219,13 @@
         <v>192574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -6246,13 +6234,13 @@
         <v>180800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>347</v>
@@ -6261,13 +6249,13 @@
         <v>373374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6270,13 @@
         <v>101187</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>103</v>
@@ -6297,13 +6285,13 @@
         <v>107903</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>196</v>
@@ -6312,13 +6300,13 @@
         <v>209090</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6395,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6437,13 +6425,13 @@
         <v>321482</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H9" s="7">
         <v>310</v>
@@ -6452,13 +6440,13 @@
         <v>332802</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>610</v>
@@ -6467,13 +6455,13 @@
         <v>654284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6476,13 @@
         <v>179025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -6503,13 +6491,13 @@
         <v>188452</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
@@ -6518,13 +6506,13 @@
         <v>367477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6628,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6631,13 @@
         <v>217324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>196</v>
@@ -6658,13 +6646,13 @@
         <v>197103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -6673,13 +6661,13 @@
         <v>414427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6682,13 @@
         <v>101241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6709,13 +6697,13 @@
         <v>139206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -6724,13 +6712,13 @@
         <v>240447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6834,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,13 +6837,13 @@
         <v>254088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>231</v>
@@ -6864,13 +6852,13 @@
         <v>249316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>474</v>
@@ -6879,13 +6867,13 @@
         <v>503405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6888,13 @@
         <v>115876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>127</v>
@@ -6915,13 +6903,13 @@
         <v>137967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M18" s="7">
         <v>238</v>
@@ -6930,13 +6918,13 @@
         <v>253842</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,7 +6998,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7025,7 +7013,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7040,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7043,13 @@
         <v>129539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -7070,13 +7058,13 @@
         <v>150624</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M21" s="7">
         <v>285</v>
@@ -7085,13 +7073,13 @@
         <v>280163</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7094,13 @@
         <v>81682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -7121,13 +7109,13 @@
         <v>67963</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -7136,13 +7124,13 @@
         <v>149645</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,7 +7204,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7231,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7261,13 +7249,13 @@
         <v>164406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -7276,13 +7264,13 @@
         <v>168312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>70</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>323</v>
@@ -7291,13 +7279,13 @@
         <v>332718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7300,13 @@
         <v>98717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>102</v>
@@ -7327,13 +7315,13 @@
         <v>104803</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>199</v>
@@ -7342,13 +7330,13 @@
         <v>203520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7392,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7422,7 +7410,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7452,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7455,13 @@
         <v>391364</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>333</v>
@@ -7482,13 +7470,13 @@
         <v>353825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>678</v>
@@ -7497,13 +7485,13 @@
         <v>745189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7506,13 @@
         <v>264139</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>367</v>
+        <v>464</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>473</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>313</v>
@@ -7533,13 +7521,13 @@
         <v>337469</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M30" s="7">
         <v>547</v>
@@ -7548,13 +7536,13 @@
         <v>601608</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7631,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7673,13 +7661,13 @@
         <v>483574</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H33" s="7">
         <v>464</v>
@@ -7688,13 +7676,13 @@
         <v>506747</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M33" s="7">
         <v>928</v>
@@ -7703,13 +7691,13 @@
         <v>990321</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7712,13 @@
         <v>295009</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H34" s="7">
         <v>291</v>
@@ -7739,13 +7727,13 @@
         <v>319420</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M34" s="7">
         <v>577</v>
@@ -7754,13 +7742,13 @@
         <v>614429</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7867,13 @@
         <v>2154352</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H37" s="7">
         <v>2024</v>
@@ -7894,28 +7882,28 @@
         <v>2139529</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="M37" s="7">
         <v>4067</v>
       </c>
       <c r="N37" s="7">
-        <v>4293881</v>
+        <v>4293880</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>48</v>
+        <v>496</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7918,13 @@
         <v>1236875</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H38" s="7">
         <v>1312</v>
@@ -7945,13 +7933,13 @@
         <v>1403183</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M38" s="7">
         <v>2497</v>
@@ -7960,13 +7948,13 @@
         <v>2640058</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>58</v>
+        <v>505</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,7 +7996,7 @@
         <v>6564</v>
       </c>
       <c r="N39" s="7">
-        <v>6933939</v>
+        <v>6933938</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -8022,7 +8010,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8046,7 +8034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C613A1A8-CC05-424A-9AFD-EBBF0348D7FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B70713-FEF6-4D5F-979E-45A4E67F3E41}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8063,7 +8051,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8170,10 +8158,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -8185,10 +8173,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8200,10 +8188,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -8227,7 +8215,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8257,7 +8245,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8308,7 +8296,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,10 +8364,10 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -8391,10 +8379,10 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -8406,10 +8394,10 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -8448,7 +8436,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8463,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,7 +8487,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8514,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,10 +8570,10 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -8597,10 +8585,10 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -8612,10 +8600,10 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -8669,7 +8657,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8788,10 +8776,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -8803,10 +8791,10 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -8818,10 +8806,10 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -8845,7 +8833,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8860,7 +8848,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8875,7 +8863,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,7 +8884,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8911,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8926,7 +8914,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8994,10 +8982,10 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -9009,10 +8997,10 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -9024,10 +9012,10 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -9051,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9066,7 +9054,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9081,7 +9069,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9102,7 +9090,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9117,7 +9105,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9132,7 +9120,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9200,10 +9188,10 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -9215,10 +9203,10 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -9230,10 +9218,10 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -9257,7 +9245,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9272,7 +9260,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9287,7 +9275,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,7 +9296,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9323,7 +9311,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9338,7 +9326,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,7 +9382,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9406,10 +9394,10 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -9421,10 +9409,10 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -9436,10 +9424,10 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -9463,7 +9451,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9493,7 +9481,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9514,7 +9502,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9544,7 +9532,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9612,10 +9600,10 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>36</v>
@@ -9627,10 +9615,10 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>36</v>
@@ -9642,10 +9630,10 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>36</v>
@@ -9669,7 +9657,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9684,7 +9672,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9699,7 +9687,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,7 +9708,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9735,7 +9723,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9750,7 +9738,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9818,10 +9806,10 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>36</v>
@@ -9833,10 +9821,10 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>36</v>
@@ -9848,10 +9836,10 @@
         <v>7220809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>36</v>
@@ -9890,7 +9878,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9905,7 +9893,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9941,7 +9929,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9956,7 +9944,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,7 +10000,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P73-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CEFCFE-F354-4CBF-8394-51226DB7216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D114CF-3E1E-47C9-9CB6-596F68550E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7285353A-3213-43A5-B471-113EE6C852C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D09DDC2-A05A-4E5C-8462-1726FBA6BCC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="550">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>61,9%</t>
   </si>
   <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>38,1%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>41,66%</t>
   </si>
   <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1402 +167,1414 @@
     <t>65,82%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>62,28%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2016 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>61,63%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>38,37%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>62,26%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>Población según si están casados o viven en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2088,7 +2100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DD1326-8525-48A6-A85F-9DE3FBF6155D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344BD38F-92F0-41DD-81CA-B4684B7A5D68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2502,10 +2514,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2532,13 @@
         <v>168551</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -2535,13 +2547,13 @@
         <v>179201</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -2550,13 +2562,13 @@
         <v>347751</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2624,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2630,37 +2642,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2687,13 @@
         <v>219049</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -2690,13 +2702,13 @@
         <v>208748</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>419</v>
@@ -2705,13 +2717,13 @@
         <v>427797</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2738,13 @@
         <v>99797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -2741,13 +2753,13 @@
         <v>126664</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>226</v>
@@ -2756,13 +2768,13 @@
         <v>226461</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2836,37 +2848,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>238250</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -2896,13 +2908,13 @@
         <v>220809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -2911,13 +2923,13 @@
         <v>459059</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2944,13 @@
         <v>120421</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>156</v>
@@ -2947,13 +2959,13 @@
         <v>150647</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -2962,13 +2974,13 @@
         <v>271068</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3036,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3042,37 +3054,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3099,13 @@
         <v>124036</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>129</v>
@@ -3102,13 +3114,13 @@
         <v>137132</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>253</v>
@@ -3117,13 +3129,13 @@
         <v>261168</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3150,13 @@
         <v>79272</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -3153,13 +3165,13 @@
         <v>70536</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -3168,13 +3180,13 @@
         <v>149808</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3242,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3248,7 +3260,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3278,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3305,13 @@
         <v>178080</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
@@ -3308,13 +3320,13 @@
         <v>172618</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>342</v>
@@ -3323,13 +3335,13 @@
         <v>350698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3356,13 @@
         <v>92731</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3359,13 +3371,13 @@
         <v>105526</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3374,7 +3386,7 @@
         <v>198257</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>142</v>
@@ -3660,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3675,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3708,10 +3720,10 @@
         <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>466</v>
@@ -3720,13 +3732,13 @@
         <v>493371</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>930</v>
@@ -3735,13 +3747,13 @@
         <v>964134</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3768,13 @@
         <v>273032</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="H34" s="7">
         <v>279</v>
@@ -3771,13 +3783,13 @@
         <v>290140</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>551</v>
@@ -3786,13 +3798,13 @@
         <v>563172</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3881,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3896,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,16 +3920,16 @@
         <v>2096</v>
       </c>
       <c r="D37" s="7">
-        <v>2142458</v>
+        <v>2142457</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>2053</v>
@@ -3926,13 +3938,13 @@
         <v>2114258</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>4149</v>
@@ -3941,13 +3953,13 @@
         <v>4256715</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3974,13 @@
         <v>1133174</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H38" s="7">
         <v>1244</v>
@@ -3977,13 +3989,13 @@
         <v>1264940</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M38" s="7">
         <v>2361</v>
@@ -3992,13 +4004,13 @@
         <v>2398114</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4022,7 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4054,7 +4066,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72335A-4A61-4682-AB71-E83C77037790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFF79E9-3677-47C5-80AF-A65D7ED8C228}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,7 +4107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4200,39 +4212,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,39 +4257,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,39 +4302,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,39 +4347,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4435,13 +4447,13 @@
         <v>340250</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>319</v>
@@ -4450,13 +4462,13 @@
         <v>350852</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>636</v>
@@ -4465,13 +4477,13 @@
         <v>691102</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4498,13 @@
         <v>165277</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -4501,13 +4513,13 @@
         <v>172913</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>316</v>
@@ -4516,13 +4528,13 @@
         <v>338190</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4590,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4596,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4611,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4626,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4653,13 @@
         <v>200130</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -4656,13 +4668,13 @@
         <v>209706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>390</v>
@@ -4671,13 +4683,13 @@
         <v>409836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4704,13 @@
         <v>123916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>124</v>
@@ -4707,13 +4719,13 @@
         <v>131314</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>246</v>
@@ -4722,13 +4734,13 @@
         <v>255230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,7 +4796,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4847,13 +4859,13 @@
         <v>430754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4862,13 +4874,13 @@
         <v>446854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>806</v>
@@ -4877,13 +4889,13 @@
         <v>877607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4910,13 @@
         <v>228281</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>203</v>
@@ -4913,13 +4925,13 @@
         <v>214598</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>424</v>
@@ -4928,13 +4940,13 @@
         <v>442879</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,7 +5002,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5008,7 +5020,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5023,7 +5035,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5038,7 +5050,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5065,13 @@
         <v>136875</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>134</v>
@@ -5068,13 +5080,13 @@
         <v>140809</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>259</v>
@@ -5083,13 +5095,13 @@
         <v>277684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5116,13 @@
         <v>75743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -5119,13 +5131,13 @@
         <v>77004</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -5134,13 +5146,13 @@
         <v>152747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5208,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5214,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5244,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5271,13 @@
         <v>179135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -5274,13 +5286,13 @@
         <v>179805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>344</v>
@@ -5289,13 +5301,13 @@
         <v>358940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5322,13 @@
         <v>94846</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -5325,13 +5337,13 @@
         <v>100226</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>186</v>
@@ -5340,13 +5352,13 @@
         <v>195072</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,7 +5447,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5450,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5477,13 @@
         <v>435868</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H29" s="7">
         <v>408</v>
@@ -5480,13 +5492,13 @@
         <v>446737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M29" s="7">
         <v>809</v>
@@ -5495,13 +5507,13 @@
         <v>882606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5528,13 @@
         <v>226920</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H30" s="7">
         <v>227</v>
@@ -5531,13 +5543,13 @@
         <v>246146</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="M30" s="7">
         <v>444</v>
@@ -5546,13 +5558,13 @@
         <v>473065</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5641,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5671,13 +5683,13 @@
         <v>496730</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H33" s="7">
         <v>477</v>
@@ -5686,13 +5698,13 @@
         <v>522847</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M33" s="7">
         <v>929</v>
@@ -5701,13 +5713,13 @@
         <v>1019577</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5734,13 @@
         <v>280236</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H34" s="7">
         <v>280</v>
@@ -5737,19 +5749,19 @@
         <v>301006</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M34" s="7">
         <v>543</v>
       </c>
       <c r="N34" s="7">
-        <v>581242</v>
+        <v>581243</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>330</v>
@@ -5800,7 +5812,7 @@
         <v>1472</v>
       </c>
       <c r="N35" s="7">
-        <v>1600819</v>
+        <v>1600820</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -5832,7 +5844,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5847,7 +5859,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5862,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,7 +5886,7 @@
         <v>2058</v>
       </c>
       <c r="D37" s="7">
-        <v>2219742</v>
+        <v>2219741</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>333</v>
@@ -5976,7 +5988,7 @@
         <v>3197</v>
       </c>
       <c r="D39" s="7">
-        <v>3414962</v>
+        <v>3414961</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -6020,7 +6032,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6044,7 +6056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A88CDB3-C164-4E30-BCB3-8265EEE157A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B3A446-AD87-495D-8A85-8EE88CD5C49E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6174,7 +6186,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6240,7 +6252,7 @@
         <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="M5" s="7">
         <v>347</v>
@@ -6249,13 +6261,13 @@
         <v>373374</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,10 +6300,10 @@
         <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>196</v>
@@ -6300,10 +6312,10 @@
         <v>209090</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>369</v>
@@ -6395,7 +6407,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6428,10 +6440,10 @@
         <v>370</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>310</v>
@@ -6440,13 +6452,13 @@
         <v>332802</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>610</v>
@@ -6482,7 +6494,7 @@
         <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -6491,10 +6503,10 @@
         <v>188452</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>382</v>
@@ -6568,7 +6580,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6586,7 +6598,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6631,13 +6643,13 @@
         <v>217324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>196</v>
@@ -6646,13 +6658,13 @@
         <v>197103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -6661,13 +6673,13 @@
         <v>414427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6694,13 @@
         <v>101241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -6697,13 +6709,13 @@
         <v>139206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -6712,10 +6724,10 @@
         <v>240447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>401</v>
@@ -6774,7 +6786,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6807,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6822,7 +6834,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,10 +6852,10 @@
         <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>231</v>
@@ -6852,13 +6864,13 @@
         <v>249316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>474</v>
@@ -6867,13 +6879,13 @@
         <v>503405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6900,13 @@
         <v>115876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>127</v>
@@ -6903,13 +6915,13 @@
         <v>137967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M18" s="7">
         <v>238</v>
@@ -6918,13 +6930,13 @@
         <v>253842</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,7 +6992,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6998,7 +7010,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7013,7 +7025,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7028,7 +7040,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7055,13 @@
         <v>129539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -7058,13 +7070,13 @@
         <v>150624</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M21" s="7">
         <v>285</v>
@@ -7073,13 +7085,13 @@
         <v>280163</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7106,13 @@
         <v>81682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -7109,13 +7121,13 @@
         <v>67963</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -7124,13 +7136,13 @@
         <v>149645</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,7 +7198,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7204,7 +7216,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7219,7 +7231,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7249,13 +7261,13 @@
         <v>164406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -7264,13 +7276,13 @@
         <v>168312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>323</v>
@@ -7279,13 +7291,13 @@
         <v>332718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7312,13 @@
         <v>98717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>102</v>
@@ -7315,13 +7327,13 @@
         <v>104803</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>199</v>
@@ -7330,13 +7342,13 @@
         <v>203520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,7 +7422,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7425,7 +7437,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7455,13 +7467,13 @@
         <v>391364</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H29" s="7">
         <v>333</v>
@@ -7470,13 +7482,13 @@
         <v>353825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M29" s="7">
         <v>678</v>
@@ -7485,13 +7497,13 @@
         <v>745189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7518,13 @@
         <v>264139</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>471</v>
       </c>
       <c r="H30" s="7">
         <v>313</v>
@@ -7521,13 +7533,13 @@
         <v>337469</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>547</v>
@@ -7536,13 +7548,13 @@
         <v>601608</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,7 +7628,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7631,7 +7643,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7661,13 +7673,13 @@
         <v>483574</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>474</v>
+        <v>67</v>
       </c>
       <c r="H33" s="7">
         <v>464</v>
@@ -7676,13 +7688,13 @@
         <v>506747</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M33" s="7">
         <v>928</v>
@@ -7691,13 +7703,13 @@
         <v>990321</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7724,13 @@
         <v>295009</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>291</v>
@@ -7727,13 +7739,13 @@
         <v>319420</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M34" s="7">
         <v>577</v>
@@ -7742,13 +7754,13 @@
         <v>614429</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,7 +7834,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7837,7 +7849,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7852,7 +7864,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,16 +7876,16 @@
         <v>2043</v>
       </c>
       <c r="D37" s="7">
-        <v>2154352</v>
+        <v>2154351</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>2024</v>
@@ -7882,28 +7894,28 @@
         <v>2139529</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>4067</v>
       </c>
       <c r="N37" s="7">
-        <v>4293880</v>
+        <v>4293881</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7930,13 @@
         <v>1236875</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H38" s="7">
         <v>1312</v>
@@ -7933,13 +7945,13 @@
         <v>1403183</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M38" s="7">
         <v>2497</v>
@@ -7948,13 +7960,13 @@
         <v>2640058</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,7 +7978,7 @@
         <v>3228</v>
       </c>
       <c r="D39" s="7">
-        <v>3391227</v>
+        <v>3391226</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -7996,7 +8008,7 @@
         <v>6564</v>
       </c>
       <c r="N39" s="7">
-        <v>6933938</v>
+        <v>6933939</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -8010,7 +8022,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8034,7 +8046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B70713-FEF6-4D5F-979E-45A4E67F3E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6070CAF-2EBD-4328-B21B-E9D850CCEE06}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8051,7 +8063,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8158,10 +8170,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -8173,10 +8185,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8188,10 +8200,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -8230,7 +8242,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8245,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8296,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,10 +8376,10 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -8379,10 +8391,10 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -8394,10 +8406,10 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -8421,7 +8433,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8436,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8451,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,7 +8484,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8487,7 +8499,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8502,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,7 +8570,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8570,10 +8582,10 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -8585,10 +8597,10 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -8600,10 +8612,10 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -8627,7 +8639,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8642,7 +8654,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8657,7 +8669,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8678,7 +8690,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8693,7 +8705,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8708,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8776,10 +8788,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -8791,10 +8803,10 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -8806,10 +8818,10 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -8833,7 +8845,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8863,7 +8875,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,7 +8896,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8914,7 +8926,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8970,7 +8982,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8982,10 +8994,10 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -8997,10 +9009,10 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -9012,10 +9024,10 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -9054,7 +9066,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9069,7 +9081,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,7 +9117,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9120,7 +9132,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9176,7 +9188,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9188,10 +9200,10 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -9203,10 +9215,10 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -9218,10 +9230,10 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -9245,7 +9257,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9260,7 +9272,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9275,7 +9287,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9296,7 +9308,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9311,7 +9323,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9326,7 +9338,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,10 +9406,10 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -9409,10 +9421,10 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -9424,10 +9436,10 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -9481,7 +9493,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9532,7 +9544,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,10 +9612,10 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>36</v>
@@ -9615,10 +9627,10 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>36</v>
@@ -9630,10 +9642,10 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>36</v>
@@ -9657,7 +9669,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9672,7 +9684,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9687,7 +9699,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9708,7 +9720,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9723,7 +9735,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9738,7 +9750,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,10 +9818,10 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>36</v>
@@ -9821,10 +9833,10 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>36</v>
@@ -9833,13 +9845,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>36</v>
@@ -9863,7 +9875,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9878,7 +9890,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9893,7 +9905,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9914,7 +9926,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9929,7 +9941,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9944,7 +9956,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9986,7 +9998,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -10000,7 +10012,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P73-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15874C67-A5BE-4CF9-93E3-BA9A328391FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D317AC-E7D7-4A1D-8741-14102A86CE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E359163-CE51-4B76-B22F-8C2C48A1F21A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BF492D80-1241-4DF6-BDE1-C1718894DADD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="483">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -580,7 +580,58 @@
     <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>67,31%</t>
@@ -685,58 +736,52 @@
     <t>42,17%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>64,38%</t>
@@ -1853,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66152AB7-EDFD-43E2-A478-4B5DB27ECF0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D423B-122B-434E-9285-5F83E42F3A04}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3229,7 +3274,7 @@
         <v>2053</v>
       </c>
       <c r="I28" s="7">
-        <v>2114258</v>
+        <v>2114257</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -3331,7 +3376,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3384,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C892AE54-BDB4-44D8-B348-D515E245CBC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03F3601-654B-4E43-A432-7426D33B23EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3502,43 +3547,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="D4" s="7">
+        <v>187480</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="I4" s="7">
+        <v>188848</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>341</v>
+      </c>
+      <c r="N4" s="7">
+        <v>376328</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,43 +3598,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="D5" s="7">
+        <v>99390</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83653</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="N5" s="7">
+        <v>183043</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,43 +3649,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="D6" s="7">
+        <v>286870</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="I6" s="7">
+        <v>272501</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>517</v>
+      </c>
+      <c r="N6" s="7">
+        <v>559371</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3708,13 @@
         <v>340250</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>319</v>
@@ -3660,13 +3723,13 @@
         <v>350852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>636</v>
@@ -3675,13 +3738,13 @@
         <v>691102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3759,13 @@
         <v>165277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>161</v>
@@ -3711,13 +3774,13 @@
         <v>172913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>316</v>
@@ -3726,10 +3789,10 @@
         <v>338190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>175</v>
@@ -3800,13 +3863,13 @@
         <v>200130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -3815,13 +3878,13 @@
         <v>209706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>390</v>
@@ -3830,13 +3893,13 @@
         <v>409836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3914,13 @@
         <v>123916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -3866,13 +3929,13 @@
         <v>131314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>246</v>
@@ -3881,13 +3944,13 @@
         <v>255230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,49 +4012,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>395</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7">
-        <v>430753</v>
+        <v>243273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
-        <v>411</v>
+        <v>243</v>
       </c>
       <c r="I13" s="7">
-        <v>446854</v>
+        <v>258006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>806</v>
+        <v>465</v>
       </c>
       <c r="N13" s="7">
-        <v>877607</v>
+        <v>501279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,49 +4063,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>228281</v>
+        <v>128891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7">
-        <v>214598</v>
+        <v>130945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="N14" s="7">
-        <v>442879</v>
+        <v>259836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>616</v>
+        <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>659034</v>
+        <v>372164</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4066,10 +4129,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>614</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>661452</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4081,10 +4144,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1230</v>
+        <v>713</v>
       </c>
       <c r="N15" s="7">
-        <v>1320486</v>
+        <v>761115</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4110,13 +4173,13 @@
         <v>136875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -4125,13 +4188,13 @@
         <v>140809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
@@ -4140,13 +4203,13 @@
         <v>277684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4224,13 @@
         <v>75743</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4176,13 +4239,13 @@
         <v>77004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -4191,13 +4254,13 @@
         <v>152747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4328,13 @@
         <v>179135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
@@ -4280,13 +4343,13 @@
         <v>179805</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4295,13 +4358,13 @@
         <v>358940</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4379,13 @@
         <v>94846</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4331,13 +4394,13 @@
         <v>100226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>186</v>
@@ -4346,13 +4409,13 @@
         <v>195072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,10 +4486,10 @@
         <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>408</v>
@@ -4435,13 +4498,13 @@
         <v>446737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>809</v>
@@ -4450,13 +4513,13 @@
         <v>882606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,10 +4537,10 @@
         <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>227</v>
@@ -4486,13 +4549,13 @@
         <v>246146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>444</v>
@@ -4501,13 +4564,13 @@
         <v>473065</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4638,13 @@
         <v>496730</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>477</v>
@@ -4590,13 +4653,13 @@
         <v>522847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>929</v>
@@ -4605,13 +4668,13 @@
         <v>1019577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4689,13 @@
         <v>280236</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>280</v>
@@ -4641,13 +4704,13 @@
         <v>301006</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>543</v>
@@ -4656,13 +4719,13 @@
         <v>581242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,16 +4790,16 @@
         <v>2058</v>
       </c>
       <c r="D28" s="7">
-        <v>2219742</v>
+        <v>2219741</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>2115</v>
@@ -4745,13 +4808,13 @@
         <v>2297610</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>4173</v>
@@ -4760,13 +4823,13 @@
         <v>4517351</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4844,13 @@
         <v>1195220</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>1167</v>
@@ -4796,13 +4859,13 @@
         <v>1243207</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>2306</v>
@@ -4811,13 +4874,13 @@
         <v>2438427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4892,7 @@
         <v>3197</v>
       </c>
       <c r="D30" s="7">
-        <v>3414962</v>
+        <v>3414961</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4897,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8252A6C3-6D2A-4F6B-82BB-40AC8A7567BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092B72A8-2508-47F9-9C60-8845965ECC58}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4914,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5021,13 +5084,13 @@
         <v>192574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -5036,7 +5099,7 @@
         <v>180800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>112</v>
@@ -5051,13 +5114,13 @@
         <v>373374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5135,13 @@
         <v>101187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -5087,7 +5150,7 @@
         <v>107903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>121</v>
@@ -5102,13 +5165,13 @@
         <v>209090</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5239,13 @@
         <v>321482</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
@@ -5191,13 +5254,13 @@
         <v>332802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>610</v>
@@ -5206,13 +5269,13 @@
         <v>654284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5290,13 @@
         <v>179025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>172</v>
@@ -5242,13 +5305,13 @@
         <v>188452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>345</v>
@@ -5257,13 +5320,13 @@
         <v>367477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5394,13 @@
         <v>217324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -5346,13 +5409,13 @@
         <v>197103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>422</v>
@@ -5361,13 +5424,13 @@
         <v>414427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5445,13 @@
         <v>101241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>136</v>
@@ -5397,13 +5460,13 @@
         <v>139206</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>245</v>
@@ -5412,13 +5475,13 @@
         <v>240447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5549,13 @@
         <v>254088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5501,13 +5564,13 @@
         <v>249316</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -5516,13 +5579,13 @@
         <v>503405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5600,13 @@
         <v>115876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -5552,13 +5615,13 @@
         <v>137967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>238</v>
@@ -5567,13 +5630,13 @@
         <v>253842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5704,13 @@
         <v>129539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -5656,13 +5719,13 @@
         <v>150624</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -5671,13 +5734,13 @@
         <v>280163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5755,13 @@
         <v>81682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -5707,13 +5770,13 @@
         <v>67963</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>150</v>
@@ -5722,13 +5785,13 @@
         <v>149645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5859,13 @@
         <v>164406</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -5811,13 +5874,13 @@
         <v>168312</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -5826,13 +5889,13 @@
         <v>332718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5910,13 @@
         <v>98717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -5862,13 +5925,13 @@
         <v>104803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -5877,13 +5940,13 @@
         <v>203520</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +6014,13 @@
         <v>391364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>333</v>
@@ -5966,13 +6029,13 @@
         <v>353825</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>678</v>
@@ -5981,13 +6044,13 @@
         <v>745189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6065,13 @@
         <v>264139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>313</v>
@@ -6017,13 +6080,13 @@
         <v>337469</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>547</v>
@@ -6032,13 +6095,13 @@
         <v>601608</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6169,13 @@
         <v>483574</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>464</v>
@@ -6121,13 +6184,13 @@
         <v>506747</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>928</v>
@@ -6136,13 +6199,13 @@
         <v>990321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6220,13 @@
         <v>295009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>291</v>
@@ -6172,13 +6235,13 @@
         <v>319420</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -6187,13 +6250,13 @@
         <v>614429</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6324,13 @@
         <v>2154352</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="H28" s="7">
         <v>2024</v>
@@ -6276,13 +6339,13 @@
         <v>2139529</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>4067</v>
@@ -6294,10 +6357,10 @@
         <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6375,13 @@
         <v>1236875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>1312</v>
@@ -6327,13 +6390,13 @@
         <v>1403183</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>2497</v>
@@ -6345,10 +6408,10 @@
         <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
